--- a/data/outputs/management_elsevier/69.xlsx
+++ b/data/outputs/management_elsevier/69.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS54"/>
+  <dimension ref="A1:BU54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84938704307</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>14095</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1158,6 +1174,12 @@
           <t>2-s2.0-84939608261</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>12076</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1395,6 +1417,12 @@
           <t>2-s2.0-84938244182</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>10987</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1617,6 +1645,12 @@
         <is>
           <t>2-s2.0-84939552781</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>10350</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1831,6 +1865,12 @@
           <t>2-s2.0-84947558115</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>11099</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2052,6 +2092,12 @@
           <t>2-s2.0-84939825609</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>11912</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2274,6 +2320,12 @@
         <is>
           <t>2-s2.0-84942010397</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>13096</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -2482,6 +2534,12 @@
           <t>2-s2.0-84939781412</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2953</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2714,6 +2772,12 @@
         <is>
           <t>2-s2.0-84938303744</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>35143</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -2918,6 +2982,12 @@
           <t>2-s2.0-84946866232</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>9976</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3135,6 +3205,12 @@
           <t>2-s2.0-84939239817</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>6486</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3352,6 +3428,12 @@
           <t>2-s2.0-84942431226</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3660</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3573,6 +3655,12 @@
           <t>2-s2.0-84946836579</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1919</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3791,6 +3879,12 @@
         <is>
           <t>2-s2.0-85032068649</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>3901</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -4004,6 +4098,12 @@
         <is>
           <t>2-s2.0-84934765427</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>4459</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -4204,6 +4304,12 @@
           <t>2-s2.0-84938989824</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>9966</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4415,6 +4521,12 @@
           <t>2-s2.0-84930654374</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>4967</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4620,6 +4732,12 @@
           <t>2-s2.0-84938823944</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>12861</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4835,6 +4953,12 @@
           <t>2-s2.0-84938964360</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>5932</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5062,6 +5186,12 @@
           <t>2-s2.0-84938952307</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3220</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5291,6 +5421,12 @@
           <t>2-s2.0-84924980370</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>4821</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5520,6 +5656,12 @@
           <t>2-s2.0-84925454049</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>6402</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5735,6 +5877,12 @@
           <t>2-s2.0-84926050029</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3780</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5954,6 +6102,12 @@
           <t>2-s2.0-84926164494</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>4410</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6169,6 +6323,12 @@
           <t>2-s2.0-84928389562</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4239</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6396,6 +6556,12 @@
           <t>2-s2.0-84929521877</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>6901</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6614,6 +6780,12 @@
         <is>
           <t>2-s2.0-84929521496</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>6173</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -6828,6 +7000,12 @@
           <t>2-s2.0-84939999320</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>5206</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7041,6 +7219,12 @@
           <t>2-s2.0-84939988608</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3631</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7262,6 +7446,12 @@
           <t>2-s2.0-84939944218</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>4273</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7491,6 +7681,12 @@
           <t>2-s2.0-84939997389</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>7082</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7719,6 +7915,12 @@
         <is>
           <t>2-s2.0-84939959458</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>4897</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -7941,6 +8143,12 @@
           <t>2-s2.0-84925867151</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>4693</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8162,6 +8370,12 @@
           <t>2-s2.0-84925446858</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>5587</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8387,6 +8601,12 @@
           <t>2-s2.0-84925862538</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>5869</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8615,6 +8835,12 @@
         <is>
           <t>2-s2.0-84927129983</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>10086</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -8827,6 +9053,12 @@
           <t>2-s2.0-84927928425</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>5453</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9046,6 +9278,12 @@
           <t>2-s2.0-84929172361</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>5144</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9261,6 +9499,12 @@
           <t>2-s2.0-84939985738</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>5356</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9481,6 +9725,12 @@
         <is>
           <t>2-s2.0-84939985463</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>10329</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="42">
@@ -9695,6 +9945,12 @@
           <t>2-s2.0-84934778026</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>8287</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9919,6 +10175,12 @@
         <is>
           <t>2-s2.0-84939961633</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>5682</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -10131,6 +10393,12 @@
           <t>2-s2.0-84910028966</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>4784</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10346,6 +10614,12 @@
           <t>2-s2.0-84910650561</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>5271</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10562,6 +10836,12 @@
         <is>
           <t>2-s2.0-84921653934</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>4906</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -10758,6 +11038,12 @@
           <t>2-s2.0-84922278337</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10975,6 +11261,12 @@
           <t>2-s2.0-84910035222</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>5038</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11193,6 +11485,12 @@
         <is>
           <t>2-s2.0-84910092951</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>10647</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="50">
@@ -11405,6 +11703,12 @@
           <t>2-s2.0-84910060076</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>10435</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11619,6 +11923,12 @@
         <is>
           <t>2-s2.0-84910030823</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>12568</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -11833,6 +12143,12 @@
           <t>2-s2.0-84914170589</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>2895</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12052,6 +12368,12 @@
           <t>2-s2.0-84915817493</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>11196</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12267,6 +12589,12 @@
           <t>2-s2.0-84921692343</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>6241</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
